--- a/nmadb/501333.xlsx
+++ b/nmadb/501333.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7155"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$154</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="221">
   <si>
     <t>Harmful</t>
   </si>
@@ -53,21 +53,6 @@
     <t>Study</t>
   </si>
   <si>
-    <t>Study id</t>
-  </si>
-  <si>
-    <t>Treatment 1</t>
-  </si>
-  <si>
-    <t>Treatment 2</t>
-  </si>
-  <si>
-    <t>log(HR)</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>Low-dose anthracycline (combination regimen); AcLD</t>
   </si>
   <si>
@@ -696,12 +681,30 @@
   </si>
   <si>
     <t>Pannuti</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>effect=log(HR)</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>se</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -891,44 +894,33 @@
     </xf>
   </cellXfs>
   <cellStyles count="25">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -942,7 +934,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1016,7 +1008,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1051,7 +1042,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1227,15 +1217,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1257,19 +1247,19 @@
         <v>4</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>5</v>
+        <v>215</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>6</v>
+        <v>216</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="3" t="s">
@@ -1284,7 +1274,7 @@
         <v>1993</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C2" s="21">
         <v>1</v>
@@ -1310,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M2" s="4"/>
     </row>
@@ -1319,7 +1309,7 @@
         <v>1993</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -1343,7 +1333,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M3" s="4"/>
     </row>
@@ -1352,7 +1342,7 @@
         <v>1978</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1375,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1383,7 +1373,7 @@
         <v>1995</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -1406,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1414,7 +1404,7 @@
         <v>1975</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -1437,7 +1427,7 @@
         <v>5</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1445,7 +1435,7 @@
         <v>1990</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -1468,7 +1458,7 @@
         <v>6</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1476,7 +1466,7 @@
         <v>1990</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -1499,7 +1489,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1507,7 +1497,7 @@
         <v>1983</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
@@ -1530,7 +1520,7 @@
         <v>8</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1538,7 +1528,7 @@
         <v>1984</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C10" s="1">
         <v>9</v>
@@ -1561,7 +1551,7 @@
         <v>9</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1569,7 +1559,7 @@
         <v>1995</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -1592,7 +1582,7 @@
         <v>10</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1600,7 +1590,7 @@
         <v>1999</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C12" s="1">
         <v>11</v>
@@ -1623,7 +1613,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1631,7 +1621,7 @@
         <v>2000</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
@@ -1654,7 +1644,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1662,7 +1652,7 @@
         <v>1999</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C14" s="1">
         <v>13</v>
@@ -1685,7 +1675,7 @@
         <v>13</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1693,7 +1683,7 @@
         <v>1999</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C15" s="1">
         <v>14</v>
@@ -1716,7 +1706,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1724,7 +1714,7 @@
         <v>1985</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C16" s="1">
         <v>15</v>
@@ -1747,7 +1737,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1755,7 +1745,7 @@
         <v>1997</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C17" s="1">
         <v>16</v>
@@ -1778,7 +1768,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1786,7 +1776,7 @@
         <v>1996</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C18" s="1">
         <v>17</v>
@@ -1809,7 +1799,7 @@
         <v>17</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1817,7 +1807,7 @@
         <v>1994</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C19" s="1">
         <v>18</v>
@@ -1840,7 +1830,7 @@
         <v>18</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1848,7 +1838,7 @@
         <v>2001</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C20" s="1">
         <v>19</v>
@@ -1871,7 +1861,7 @@
         <v>19</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1879,7 +1869,7 @@
         <v>2002</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1">
         <v>20</v>
@@ -1902,7 +1892,7 @@
         <v>20</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1910,7 +1900,7 @@
         <v>2002</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C22" s="1">
         <v>21</v>
@@ -1933,7 +1923,7 @@
         <v>21</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1941,7 +1931,7 @@
         <v>1986</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C23" s="1">
         <v>22</v>
@@ -1964,7 +1954,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1972,7 +1962,7 @@
         <v>2000</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C24" s="1">
         <v>23</v>
@@ -1996,7 +1986,7 @@
         <v>1976</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C25" s="1">
         <v>24</v>
@@ -2014,13 +2004,16 @@
         <v>0.26038963244400715</v>
       </c>
       <c r="H25" s="2"/>
+      <c r="L25" s="13" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>1991</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C26" s="1">
         <v>25</v>
@@ -2047,7 +2040,7 @@
         <v>1989</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C27" s="1">
         <v>26</v>
@@ -2074,7 +2067,7 @@
         <v>1991</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C28" s="1">
         <v>27</v>
@@ -2101,7 +2094,7 @@
         <v>2002</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C29" s="1">
         <v>28</v>
@@ -2128,7 +2121,7 @@
         <v>1976</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C30" s="1">
         <v>29</v>
@@ -2155,7 +2148,7 @@
         <v>1989</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C31" s="1">
         <v>30</v>
@@ -2182,7 +2175,7 @@
         <v>1985</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C32" s="1">
         <v>31</v>
@@ -2209,7 +2202,7 @@
         <v>1982</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C33" s="1">
         <v>32</v>
@@ -2236,7 +2229,7 @@
         <v>1988</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C34" s="1">
         <v>33</v>
@@ -2263,7 +2256,7 @@
         <v>1984</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C35" s="1">
         <v>34</v>
@@ -2290,7 +2283,7 @@
         <v>1984</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C36" s="1">
         <v>35</v>
@@ -2317,7 +2310,7 @@
         <v>1995</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C37" s="1">
         <v>36</v>
@@ -2344,7 +2337,7 @@
         <v>1987</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C38" s="1">
         <v>37</v>
@@ -2371,7 +2364,7 @@
         <v>1996</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C39" s="1">
         <v>38</v>
@@ -2398,7 +2391,7 @@
         <v>1985</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C40" s="1">
         <v>39</v>
@@ -2425,7 +2418,7 @@
         <v>1997</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C41" s="1">
         <v>40</v>
@@ -2452,7 +2445,7 @@
         <v>1996</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C42" s="1">
         <v>41</v>
@@ -2479,7 +2472,7 @@
         <v>1982</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C43" s="1">
         <v>42</v>
@@ -2506,7 +2499,7 @@
         <v>1999</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C44" s="1">
         <v>43</v>
@@ -2533,7 +2526,7 @@
         <v>1999</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C45" s="1">
         <v>44</v>
@@ -2560,7 +2553,7 @@
         <v>1997</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C46" s="1">
         <v>45</v>
@@ -2587,7 +2580,7 @@
         <v>1999</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C47" s="1">
         <v>46</v>
@@ -2614,7 +2607,7 @@
         <v>2002</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C48" s="1">
         <v>47</v>
@@ -2641,7 +2634,7 @@
         <v>1987</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C49" s="1">
         <v>48</v>
@@ -2668,7 +2661,7 @@
         <v>1998</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C50" s="1">
         <v>49</v>
@@ -2695,7 +2688,7 @@
         <v>1980</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C51" s="1">
         <v>50</v>
@@ -2722,7 +2715,7 @@
         <v>1989</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C52" s="1">
         <v>51</v>
@@ -2749,7 +2742,7 @@
         <v>1986</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C53" s="1">
         <v>52</v>
@@ -2776,7 +2769,7 @@
         <v>1987</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C54" s="1">
         <v>53</v>
@@ -2821,7 +2814,7 @@
         <v>1993</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C56" s="1">
         <v>54</v>
@@ -2848,7 +2841,7 @@
         <v>1999</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C57" s="1">
         <v>55</v>
@@ -2875,7 +2868,7 @@
         <v>1995</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C58" s="1">
         <v>56</v>
@@ -2902,7 +2895,7 @@
         <v>2001</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C59" s="1">
         <v>57</v>
@@ -2926,10 +2919,10 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C60" s="1">
         <v>58</v>
@@ -2956,7 +2949,7 @@
         <v>2000</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C61" s="1">
         <v>59</v>
@@ -2983,7 +2976,7 @@
         <v>2001</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C62" s="1">
         <v>60</v>
@@ -3010,7 +3003,7 @@
         <v>1996</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C63" s="1">
         <v>61</v>
@@ -3037,7 +3030,7 @@
         <v>1989</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C64" s="1">
         <v>62</v>
@@ -3064,7 +3057,7 @@
         <v>1996</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C65" s="1">
         <v>63</v>
@@ -3091,7 +3084,7 @@
         <v>1983</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C66" s="1">
         <v>64</v>
@@ -3118,7 +3111,7 @@
         <v>1997</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C67" s="1">
         <v>65</v>
@@ -3145,7 +3138,7 @@
         <v>1991</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
@@ -3172,7 +3165,7 @@
         <v>1991</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C69" s="1">
         <v>67</v>
@@ -3199,7 +3192,7 @@
         <v>1987</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C70" s="1">
         <v>68</v>
@@ -3226,7 +3219,7 @@
         <v>2003</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C71" s="1">
         <v>69</v>
@@ -3253,7 +3246,7 @@
         <v>1999</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C72" s="1">
         <v>70</v>
@@ -3280,7 +3273,7 @@
         <v>1989</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C73" s="1">
         <v>71</v>
@@ -3307,7 +3300,7 @@
         <v>1993</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C74" s="1">
         <v>72</v>
@@ -3334,7 +3327,7 @@
         <v>1987</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C75" s="1">
         <v>73</v>
@@ -3361,7 +3354,7 @@
         <v>1999</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C76" s="1">
         <v>74</v>
@@ -3388,7 +3381,7 @@
         <v>2000</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C77" s="1">
         <v>75</v>
@@ -3415,7 +3408,7 @@
         <v>1988</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C78" s="1">
         <v>76</v>
@@ -3442,7 +3435,7 @@
         <v>1988</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C79" s="1">
         <v>77</v>
@@ -3469,7 +3462,7 @@
         <v>2004</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
@@ -3496,7 +3489,7 @@
         <v>2005</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C81" s="1">
         <v>79</v>
@@ -3523,7 +3516,7 @@
         <v>2004</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C82" s="1">
         <v>80</v>
@@ -3550,7 +3543,7 @@
         <v>2004</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C83" s="1">
         <v>81</v>
@@ -3577,7 +3570,7 @@
         <v>2005</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C84" s="1">
         <v>82</v>
@@ -3604,7 +3597,7 @@
         <v>2005</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C85" s="1">
         <v>83</v>
@@ -3631,7 +3624,7 @@
         <v>2004</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C86" s="1">
         <v>84</v>
@@ -3658,7 +3651,7 @@
         <v>2004</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C87" s="1">
         <v>85</v>
@@ -3685,7 +3678,7 @@
         <v>1987</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C88" s="1">
         <v>86</v>
@@ -3712,7 +3705,7 @@
         <v>2005</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C89" s="1">
         <v>87</v>
@@ -3739,7 +3732,7 @@
         <v>2005</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C90" s="1">
         <v>88</v>
@@ -3766,7 +3759,7 @@
         <v>2005</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C91" s="1">
         <v>89</v>
@@ -3793,7 +3786,7 @@
         <v>2005</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C92" s="1">
         <v>90</v>
@@ -3820,7 +3813,7 @@
         <v>2007</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C93" s="1">
         <v>91</v>
@@ -3847,7 +3840,7 @@
         <v>2006</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C94" s="1">
         <v>92</v>
@@ -3874,7 +3867,7 @@
         <v>2005</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C95" s="1">
         <v>93</v>
@@ -3901,7 +3894,7 @@
         <v>2007</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C96" s="1">
         <v>94</v>
@@ -3928,7 +3921,7 @@
         <v>2007</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C97" s="1">
         <v>95</v>
@@ -3955,7 +3948,7 @@
         <v>2006</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C98" s="1">
         <v>96</v>
@@ -3982,7 +3975,7 @@
         <v>2007</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C99" s="1">
         <v>97</v>
@@ -4009,7 +4002,7 @@
         <v>1991</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C100" s="1">
         <v>98</v>
@@ -4036,7 +4029,7 @@
         <v>1989</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
@@ -4063,7 +4056,7 @@
         <v>1977</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C102" s="1">
         <v>100</v>
@@ -4090,7 +4083,7 @@
         <v>1988</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C103" s="1">
         <v>101</v>
@@ -4117,7 +4110,7 @@
         <v>1990</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C104" s="1">
         <v>102</v>
@@ -4141,10 +4134,10 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C105" s="1">
         <v>103</v>
@@ -4171,7 +4164,7 @@
         <v>1979</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C106" s="1">
         <v>104</v>
@@ -4195,10 +4188,10 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C107" s="1">
         <v>105</v>
@@ -4225,7 +4218,7 @@
         <v>1985</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C108" s="1">
         <v>106</v>
@@ -4249,10 +4242,10 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C109" s="1">
         <v>107</v>
@@ -4276,10 +4269,10 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C110" s="1">
         <v>108</v>
@@ -4306,7 +4299,7 @@
         <v>1987</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C111" s="1">
         <v>109</v>
@@ -4330,10 +4323,10 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C112" s="1">
         <v>110</v>
@@ -4378,7 +4371,7 @@
         <v>2000</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C114" s="1">
         <v>111</v>
@@ -4426,10 +4419,10 @@
         <v>13</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H116" s="2"/>
       <c r="J116" s="14"/>
@@ -4441,7 +4434,7 @@
         <v>1974</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C117" s="1">
         <v>112</v>
@@ -4486,7 +4479,7 @@
         <v>1984</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C119" s="1">
         <v>113</v>
@@ -4531,7 +4524,7 @@
         <v>1993</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C121" s="1">
         <v>114</v>
@@ -4579,10 +4572,10 @@
         <v>11</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H123" s="2"/>
       <c r="J123" s="14"/>
@@ -4591,10 +4584,10 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C124" s="1">
         <v>115</v>
@@ -4639,7 +4632,7 @@
         <v>1982</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C126" s="1">
         <v>116</v>
@@ -4684,7 +4677,7 @@
         <v>1987</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C128" s="1">
         <v>117</v>
@@ -4729,7 +4722,7 @@
         <v>2003</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C130" s="1">
         <v>118</v>
@@ -4774,7 +4767,7 @@
         <v>2003</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C132" s="1">
         <v>119</v>
@@ -4819,7 +4812,7 @@
         <v>1999</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C134" s="1">
         <v>120</v>
@@ -4864,7 +4857,7 @@
         <v>2003</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C136" s="1">
         <v>121</v>
@@ -4912,10 +4905,10 @@
         <v>8</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H138" s="2"/>
       <c r="J138" s="15"/>
@@ -4927,7 +4920,7 @@
         <v>1991</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C139" s="1">
         <v>122</v>
@@ -4972,19 +4965,19 @@
         <v>3</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H141" s="2"/>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C142" s="1">
         <v>123</v>
@@ -5020,10 +5013,10 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C144" s="1">
         <v>124</v>
@@ -5059,10 +5052,10 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C146" s="1">
         <v>125</v>
@@ -5101,7 +5094,7 @@
         <v>2002</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C148" s="1">
         <v>126</v>
@@ -5155,7 +5148,7 @@
         <v>1982</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C151" s="1">
         <v>127</v>
@@ -5209,7 +5202,7 @@
         <v>1984</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C154" s="1">
         <v>128</v>
@@ -5221,10 +5214,10 @@
         <v>17</v>
       </c>
       <c r="F154" s="22" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G154" s="22" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -5239,1363 +5232,1363 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:ET5"/>
   <sheetViews>
     <sheetView topLeftCell="AF1" workbookViewId="0">
       <selection activeCell="AQ4" sqref="AQ4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:150">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>41</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>42</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>42</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>44</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>49</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>42</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>50</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>42</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>42</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>48</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>44</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>38</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>44</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>50</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>42</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>41</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>42</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>41</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>50</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>42</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>41</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>41</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>47</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>46</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>44</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>39</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>42</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>42</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>47</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>39</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>42</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>42</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>38</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>42</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>42</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>42</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>38</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>38</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>49</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>39</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>38</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>38</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>38</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>38</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>41</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>41</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>38</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>42</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>42</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>38</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>38</v>
+      </c>
+      <c r="ET1" t="s">
         <v>51</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>47</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>43</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>43</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>44</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>46</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>47</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>44</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>47</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>49</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>54</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>47</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>47</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>44</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>55</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>47</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>47</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>53</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>49</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>50</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>43</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>49</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>50</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>55</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>47</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>46</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>47</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>43</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>46</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>55</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>43</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>43</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>47</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>46</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>46</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>52</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>43</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>43</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>51</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>49</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>44</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>44</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>47</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>47</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>52</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>44</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>43</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>43</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>47</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>47</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>43</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>43</v>
-      </c>
-      <c r="DY1" t="s">
-        <v>47</v>
-      </c>
-      <c r="DZ1" t="s">
-        <v>47</v>
-      </c>
-      <c r="EA1" t="s">
-        <v>47</v>
-      </c>
-      <c r="EB1" t="s">
-        <v>47</v>
-      </c>
-      <c r="EC1" t="s">
-        <v>43</v>
-      </c>
-      <c r="ED1" t="s">
-        <v>43</v>
-      </c>
-      <c r="EE1" t="s">
-        <v>54</v>
-      </c>
-      <c r="EF1" t="s">
-        <v>44</v>
-      </c>
-      <c r="EG1" t="s">
-        <v>43</v>
-      </c>
-      <c r="EH1" t="s">
-        <v>43</v>
-      </c>
-      <c r="EI1" t="s">
-        <v>43</v>
-      </c>
-      <c r="EJ1" t="s">
-        <v>43</v>
-      </c>
-      <c r="EK1" t="s">
-        <v>46</v>
-      </c>
-      <c r="EL1" t="s">
-        <v>46</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>43</v>
-      </c>
-      <c r="EN1" t="s">
-        <v>43</v>
-      </c>
-      <c r="EO1" t="s">
-        <v>47</v>
-      </c>
-      <c r="EP1" t="s">
-        <v>47</v>
-      </c>
-      <c r="EQ1" t="s">
-        <v>47</v>
-      </c>
-      <c r="ER1" t="s">
-        <v>43</v>
-      </c>
-      <c r="ES1" t="s">
-        <v>43</v>
-      </c>
-      <c r="ET1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:150">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>54</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>55</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>39</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>40</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>39</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>42</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>39</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>39</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>42</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>42</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>55</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>50</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>44</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>56</v>
+      </c>
+      <c r="CH3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s">
+      <c r="CI3" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>46</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>44</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>44</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>60</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>50</v>
+      </c>
+      <c r="CS3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
+      <c r="CT3" t="s">
+        <v>41</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>50</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>61</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>41</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>40</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>41</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>39</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>40</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>59</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>42</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>41</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>41</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>40</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>40</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>41</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>41</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>41</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>41</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>41</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>40</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>40</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>41</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>41</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>39</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>53</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>42</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>42</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>41</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>41</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>41</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>41</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>49</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>49</v>
+      </c>
+      <c r="EA3" t="s">
         <v>46</v>
       </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="EB3" t="s">
         <v>46</v>
       </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="EC3" t="s">
+        <v>41</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>41</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>50</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>50</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>42</v>
+      </c>
+      <c r="EH3" t="s">
         <v>47</v>
       </c>
-      <c r="S3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" t="s">
-        <v>58</v>
-      </c>
-      <c r="W3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>45</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>44</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>46</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>47</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>46</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>51</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>54</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>46</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>52</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>51</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>44</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>45</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>44</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>46</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>47</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>54</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>60</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>47</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>46</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>44</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>51</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>44</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>47</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>47</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>60</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>55</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>54</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>49</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>61</v>
-      </c>
-      <c r="CH3" t="s">
+      <c r="EI3" t="s">
+        <v>41</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>41</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>40</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>40</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>41</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>41</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>39</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>39</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>39</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>41</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>41</v>
+      </c>
+      <c r="ET3" t="s">
         <v>62</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>63</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>54</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>51</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>49</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>64</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>54</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>54</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>49</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>65</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>55</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>47</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>46</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>55</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>66</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>46</v>
-      </c>
-      <c r="CX3" t="s">
-        <v>45</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>46</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>44</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>45</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>64</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>47</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>46</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>46</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>45</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>45</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>46</v>
-      </c>
-      <c r="DI3" t="s">
-        <v>46</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>46</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>46</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>46</v>
-      </c>
-      <c r="DM3" t="s">
-        <v>45</v>
-      </c>
-      <c r="DN3" t="s">
-        <v>45</v>
-      </c>
-      <c r="DO3" t="s">
-        <v>46</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>46</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>44</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>58</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>47</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>47</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>46</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>46</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>46</v>
-      </c>
-      <c r="DX3" t="s">
-        <v>46</v>
-      </c>
-      <c r="DY3" t="s">
-        <v>54</v>
-      </c>
-      <c r="DZ3" t="s">
-        <v>54</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>51</v>
-      </c>
-      <c r="EB3" t="s">
-        <v>51</v>
-      </c>
-      <c r="EC3" t="s">
-        <v>46</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>46</v>
-      </c>
-      <c r="EE3" t="s">
-        <v>55</v>
-      </c>
-      <c r="EF3" t="s">
-        <v>55</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>47</v>
-      </c>
-      <c r="EH3" t="s">
-        <v>52</v>
-      </c>
-      <c r="EI3" t="s">
-        <v>46</v>
-      </c>
-      <c r="EJ3" t="s">
-        <v>46</v>
-      </c>
-      <c r="EK3" t="s">
-        <v>45</v>
-      </c>
-      <c r="EL3" t="s">
-        <v>45</v>
-      </c>
-      <c r="EM3" t="s">
-        <v>46</v>
-      </c>
-      <c r="EN3" t="s">
-        <v>46</v>
-      </c>
-      <c r="EO3" t="s">
-        <v>44</v>
-      </c>
-      <c r="EP3" t="s">
-        <v>44</v>
-      </c>
-      <c r="EQ3" t="s">
-        <v>44</v>
-      </c>
-      <c r="ER3" t="s">
-        <v>46</v>
-      </c>
-      <c r="ES3" t="s">
-        <v>46</v>
-      </c>
-      <c r="ET3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:150">
       <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
         <v>68</v>
       </c>
-      <c r="D5" t="s">
+      <c r="I5" t="s">
         <v>69</v>
       </c>
-      <c r="E5" t="s">
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
         <v>70</v>
       </c>
-      <c r="F5" t="s">
+      <c r="M5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="H5" t="s">
+      <c r="O5" t="s">
         <v>73</v>
       </c>
-      <c r="I5" t="s">
+      <c r="P5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
+      <c r="R5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T5" t="s">
+        <v>70</v>
+      </c>
+      <c r="U5" t="s">
+        <v>76</v>
+      </c>
+      <c r="V5" t="s">
+        <v>77</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH5" t="s">
         <v>74</v>
       </c>
-      <c r="K5" t="s">
+      <c r="AI5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS5" t="s">
         <v>74</v>
       </c>
-      <c r="L5" t="s">
+      <c r="AT5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX5" t="s">
         <v>75</v>
       </c>
-      <c r="M5" t="s">
+      <c r="AY5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>68</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>81</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>94</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>88</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>68</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>75</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>75</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>90</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>73</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>95</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>96</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>97</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>98</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>81</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>70</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>95</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>81</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>81</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>100</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>78</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>75</v>
+      </c>
+      <c r="CT5" t="s">
         <v>76</v>
       </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="CU5" t="s">
         <v>78</v>
       </c>
-      <c r="P5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="CV5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>69</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>67</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>69</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>67</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>99</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>75</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>83</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>69</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>67</v>
+      </c>
+      <c r="DG5" t="s">
+        <v>67</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>94</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>83</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>83</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>63</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>76</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>104</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>104</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>69</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>69</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>85</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>80</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>75</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>75</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>69</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>69</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>83</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>83</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>81</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>81</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>70</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>70</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>83</v>
+      </c>
+      <c r="ED5" t="s">
+        <v>83</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>105</v>
+      </c>
+      <c r="EF5" t="s">
         <v>79</v>
       </c>
-      <c r="R5" t="s">
-        <v>80</v>
-      </c>
-      <c r="S5" t="s">
-        <v>80</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="EG5" t="s">
         <v>75</v>
       </c>
-      <c r="U5" t="s">
-        <v>81</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="EH5" t="s">
         <v>82</v>
       </c>
-      <c r="W5" t="s">
+      <c r="EI5" t="s">
         <v>83</v>
       </c>
-      <c r="X5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP5" t="s">
+      <c r="EJ5" t="s">
+        <v>83</v>
+      </c>
+      <c r="EK5" t="s">
+        <v>67</v>
+      </c>
+      <c r="EL5" t="s">
+        <v>67</v>
+      </c>
+      <c r="EM5" t="s">
+        <v>83</v>
+      </c>
+      <c r="EN5" t="s">
+        <v>83</v>
+      </c>
+      <c r="EO5" t="s">
         <v>68</v>
       </c>
-      <c r="AQ5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>72</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>90</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>74</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>74</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>80</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>88</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>94</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>95</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>74</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>73</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>90</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>88</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>80</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>86</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>80</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>99</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>90</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>93</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>73</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>80</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>80</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>95</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>78</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>86</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>100</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>101</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>102</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>103</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>75</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>100</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>104</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>86</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>86</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>105</v>
-      </c>
-      <c r="CQ5" t="s">
+      <c r="EP5" t="s">
+        <v>68</v>
+      </c>
+      <c r="EQ5" t="s">
+        <v>68</v>
+      </c>
+      <c r="ER5" t="s">
+        <v>83</v>
+      </c>
+      <c r="ES5" t="s">
+        <v>83</v>
+      </c>
+      <c r="ET5" t="s">
         <v>106</v>
-      </c>
-      <c r="CR5" t="s">
-        <v>83</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>80</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>81</v>
-      </c>
-      <c r="CU5" t="s">
-        <v>83</v>
-      </c>
-      <c r="CV5" t="s">
-        <v>107</v>
-      </c>
-      <c r="CW5" t="s">
-        <v>74</v>
-      </c>
-      <c r="CX5" t="s">
-        <v>72</v>
-      </c>
-      <c r="CY5" t="s">
-        <v>74</v>
-      </c>
-      <c r="CZ5" t="s">
-        <v>108</v>
-      </c>
-      <c r="DA5" t="s">
-        <v>72</v>
-      </c>
-      <c r="DB5" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC5" t="s">
-        <v>80</v>
-      </c>
-      <c r="DD5" t="s">
-        <v>88</v>
-      </c>
-      <c r="DE5" t="s">
-        <v>74</v>
-      </c>
-      <c r="DF5" t="s">
-        <v>72</v>
-      </c>
-      <c r="DG5" t="s">
-        <v>72</v>
-      </c>
-      <c r="DH5" t="s">
-        <v>99</v>
-      </c>
-      <c r="DI5" t="s">
-        <v>88</v>
-      </c>
-      <c r="DJ5" t="s">
-        <v>88</v>
-      </c>
-      <c r="DK5" t="s">
-        <v>68</v>
-      </c>
-      <c r="DL5" t="s">
-        <v>81</v>
-      </c>
-      <c r="DM5" t="s">
-        <v>109</v>
-      </c>
-      <c r="DN5" t="s">
-        <v>109</v>
-      </c>
-      <c r="DO5" t="s">
-        <v>74</v>
-      </c>
-      <c r="DP5" t="s">
-        <v>74</v>
-      </c>
-      <c r="DQ5" t="s">
-        <v>90</v>
-      </c>
-      <c r="DR5" t="s">
-        <v>85</v>
-      </c>
-      <c r="DS5" t="s">
-        <v>80</v>
-      </c>
-      <c r="DT5" t="s">
-        <v>80</v>
-      </c>
-      <c r="DU5" t="s">
-        <v>74</v>
-      </c>
-      <c r="DV5" t="s">
-        <v>74</v>
-      </c>
-      <c r="DW5" t="s">
-        <v>88</v>
-      </c>
-      <c r="DX5" t="s">
-        <v>88</v>
-      </c>
-      <c r="DY5" t="s">
-        <v>86</v>
-      </c>
-      <c r="DZ5" t="s">
-        <v>86</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>75</v>
-      </c>
-      <c r="EB5" t="s">
-        <v>75</v>
-      </c>
-      <c r="EC5" t="s">
-        <v>88</v>
-      </c>
-      <c r="ED5" t="s">
-        <v>88</v>
-      </c>
-      <c r="EE5" t="s">
-        <v>110</v>
-      </c>
-      <c r="EF5" t="s">
-        <v>84</v>
-      </c>
-      <c r="EG5" t="s">
-        <v>80</v>
-      </c>
-      <c r="EH5" t="s">
-        <v>87</v>
-      </c>
-      <c r="EI5" t="s">
-        <v>88</v>
-      </c>
-      <c r="EJ5" t="s">
-        <v>88</v>
-      </c>
-      <c r="EK5" t="s">
-        <v>72</v>
-      </c>
-      <c r="EL5" t="s">
-        <v>72</v>
-      </c>
-      <c r="EM5" t="s">
-        <v>88</v>
-      </c>
-      <c r="EN5" t="s">
-        <v>88</v>
-      </c>
-      <c r="EO5" t="s">
-        <v>73</v>
-      </c>
-      <c r="EP5" t="s">
-        <v>73</v>
-      </c>
-      <c r="EQ5" t="s">
-        <v>73</v>
-      </c>
-      <c r="ER5" t="s">
-        <v>88</v>
-      </c>
-      <c r="ES5" t="s">
-        <v>88</v>
-      </c>
-      <c r="ET5" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -6609,12 +6602,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
